--- a/weight2.xlsx
+++ b/weight2.xlsx
@@ -483,7 +483,7 @@
         <v>43836</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.92663827624352</v>
+        <v>-0.9363897985306129</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>43838</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.9258816386480447</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +582,7 @@
         <v>43847</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9777320909323016</v>
+        <v>-0.9807532519726638</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>-1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9703846868128131</v>
+        <v>0.9696705133245269</v>
       </c>
     </row>
     <row r="18">
@@ -750,7 +750,7 @@
         <v>-1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.834803317400992</v>
+        <v>0.8406879346532451</v>
       </c>
     </row>
     <row r="29">
@@ -816,7 +816,7 @@
         <v>-1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8497290908419225</v>
+        <v>0.8517892272551705</v>
       </c>
     </row>
     <row r="35">
@@ -948,7 +948,7 @@
         <v>-1</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8472851470300902</v>
+        <v>0.8464172858954839</v>
       </c>
     </row>
     <row r="47">
@@ -992,7 +992,7 @@
         <v>-1</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8555181546765974</v>
+        <v>0.8548011613597347</v>
       </c>
     </row>
     <row r="51">
@@ -1102,7 +1102,7 @@
         <v>-1</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7625343385362872</v>
+        <v>0.762831639588468</v>
       </c>
     </row>
     <row r="61">
@@ -1179,7 +1179,7 @@
         <v>-1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7847425881715552</v>
+        <v>0.7850408537142761</v>
       </c>
     </row>
     <row r="68">
@@ -1190,7 +1190,7 @@
         <v>-1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7847425881715552</v>
+        <v>0.7850408537142761</v>
       </c>
     </row>
     <row r="69">
@@ -1234,7 +1234,7 @@
         <v>-1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8383607920020213</v>
+        <v>0.8386498662894205</v>
       </c>
     </row>
     <row r="73">
@@ -1256,7 +1256,7 @@
         <v>-1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8605065022447694</v>
+        <v>0.8601424073168883</v>
       </c>
     </row>
     <row r="75">
@@ -1344,7 +1344,7 @@
         <v>-1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8823583071156242</v>
+        <v>0.8823143843767826</v>
       </c>
     </row>
     <row r="83">
@@ -1487,7 +1487,7 @@
         <v>-1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7757566016043167</v>
+        <v>0.7773021732860622</v>
       </c>
     </row>
     <row r="96">
@@ -1553,7 +1553,7 @@
         <v>-1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7133892265041588</v>
+        <v>0.7150872667969367</v>
       </c>
     </row>
     <row r="102">
@@ -1575,7 +1575,7 @@
         <v>-1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7075120777109501</v>
+        <v>0.7091669765032591</v>
       </c>
     </row>
     <row r="104">
@@ -1619,7 +1619,7 @@
         <v>-1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7451175640748394</v>
+        <v>0.7469377122375259</v>
       </c>
     </row>
     <row r="108">
@@ -1828,7 +1828,7 @@
         <v>-1</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9311114089349372</v>
+        <v>0.9335582867594832</v>
       </c>
     </row>
     <row r="127">
@@ -1850,7 +1850,7 @@
         <v>-1</v>
       </c>
       <c r="C128" t="n">
-        <v>0.9754562911911132</v>
+        <v>0.9736027117959195</v>
       </c>
     </row>
     <row r="129">
@@ -1861,7 +1861,7 @@
         <v>-1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.9754562911911132</v>
+        <v>0.9736027117959195</v>
       </c>
     </row>
     <row r="130">
@@ -1872,7 +1872,7 @@
         <v>-1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9754562911911132</v>
+        <v>0.9736027117959195</v>
       </c>
     </row>
     <row r="131">
@@ -1883,7 +1883,7 @@
         <v>-1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9754562911911132</v>
+        <v>0.9736027117959195</v>
       </c>
     </row>
     <row r="132">
@@ -1902,7 +1902,7 @@
         <v>44025</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.7123771781859813</v>
+        <v>-0.7198756140732788</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>44027</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.5132566757338081</v>
+        <v>-0.5245314099433995</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1946,7 +1946,7 @@
         <v>44029</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.359758537303014</v>
+        <v>-0.373030173314229</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -1968,7 +1968,7 @@
         <v>44033</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.258546732233561</v>
+        <v>-0.2690690800475398</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -2001,7 +2001,7 @@
         <v>44036</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.1952160473437522</v>
+        <v>-0.203725775497022</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -2023,7 +2023,7 @@
         <v>44040</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.2190272056036757</v>
+        <v>-0.2248368818343351</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2045,7 +2045,7 @@
         <v>44042</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.2791164099422745</v>
+        <v>-0.282738081874278</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>44043</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.2791164099422745</v>
+        <v>-0.282738081874278</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2067,7 +2067,7 @@
         <v>44046</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.2791164099422745</v>
+        <v>-0.282738081874278</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2078,7 +2078,7 @@
         <v>44047</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.2791164099422745</v>
+        <v>-0.282738081874278</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2089,7 +2089,7 @@
         <v>44048</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.2791164099422745</v>
+        <v>-0.282738081874278</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2100,7 +2100,7 @@
         <v>44049</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.2791164099422745</v>
+        <v>-0.282738081874278</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2111,7 +2111,7 @@
         <v>44050</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.2791164099422745</v>
+        <v>-0.282738081874278</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -2188,7 +2188,7 @@
         <v>44062</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.8039716610411375</v>
+        <v>-0.8042359370152856</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -2276,7 +2276,7 @@
         <v>44074</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.7821603083684294</v>
+        <v>-0.7853397381627253</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -2342,7 +2342,7 @@
         <v>44082</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.7980559869907022</v>
+        <v>-0.7987670390654018</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>44084</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.8139340716539812</v>
+        <v>-0.811602874646931</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>44099</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.6250355872693943</v>
+        <v>-0.6244412248727227</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2672,7 +2672,7 @@
         <v>44130</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.6804841946053716</v>
+        <v>-0.6756625236241721</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>44138</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.7277318320414695</v>
+        <v>-0.7285325677832094</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>44155</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.7637506491434191</v>
+        <v>-0.7632757971640641</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -2892,7 +2892,7 @@
         <v>44158</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.7637506491434191</v>
+        <v>-0.7632757971640641</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -3024,7 +3024,7 @@
         <v>44174</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.7882578553372286</v>
+        <v>-0.7861189013449255</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3046,7 +3046,7 @@
         <v>44176</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.8526771772189727</v>
+        <v>-0.8517646402676918</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3068,7 +3068,7 @@
         <v>44180</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.9158015718461763</v>
+        <v>-0.9156519137629767</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3181,7 +3181,7 @@
         <v>-1</v>
       </c>
       <c r="C249" t="n">
-        <v>0.7860092740152175</v>
+        <v>0.7860989756685657</v>
       </c>
     </row>
     <row r="250">
@@ -3346,7 +3346,7 @@
         <v>-1</v>
       </c>
       <c r="C264" t="n">
-        <v>0.8176656479631548</v>
+        <v>0.8179685429555141</v>
       </c>
     </row>
     <row r="265">
@@ -3577,7 +3577,7 @@
         <v>-1</v>
       </c>
       <c r="C285" t="n">
-        <v>0.8219051993835558</v>
+        <v>0.8222222551679937</v>
       </c>
     </row>
     <row r="286">
@@ -3863,7 +3863,7 @@
         <v>-1</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8396079809660574</v>
+        <v>0.8400466153805832</v>
       </c>
     </row>
     <row r="312">
@@ -4047,10 +4047,10 @@
         <v>44313</v>
       </c>
       <c r="B328" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>0.8571066802227346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -4061,7 +4061,7 @@
         <v>-1</v>
       </c>
       <c r="C329" t="n">
-        <v>0.8571066802227346</v>
+        <v>0.8563719271559861</v>
       </c>
     </row>
     <row r="330">
@@ -4091,10 +4091,10 @@
         <v>44319</v>
       </c>
       <c r="B332" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>0.8293947294145325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -4102,10 +4102,10 @@
         <v>44320</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>0.8247923000794063</v>
       </c>
     </row>
     <row r="334">
@@ -4259,7 +4259,7 @@
         <v>-1</v>
       </c>
       <c r="C347" t="n">
-        <v>0.831990611265599</v>
+        <v>0.8313211162999281</v>
       </c>
     </row>
     <row r="348">
@@ -4300,10 +4300,10 @@
         <v>44348</v>
       </c>
       <c r="B351" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>0.8145414963246781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -4311,10 +4311,10 @@
         <v>44349</v>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>0.8100749042919968</v>
       </c>
     </row>
     <row r="353">
@@ -4424,7 +4424,7 @@
         <v>-1</v>
       </c>
       <c r="C362" t="n">
-        <v>0.8037000925473465</v>
+        <v>0.8034411748953432</v>
       </c>
     </row>
     <row r="363">
@@ -4501,7 +4501,7 @@
         <v>-1</v>
       </c>
       <c r="C369" t="n">
-        <v>0.8193907386839896</v>
+        <v>0.8192141363190111</v>
       </c>
     </row>
     <row r="370">
@@ -4512,7 +4512,7 @@
         <v>-1</v>
       </c>
       <c r="C370" t="n">
-        <v>0.8193907386839896</v>
+        <v>0.8192141363190111</v>
       </c>
     </row>
     <row r="371">
@@ -4853,7 +4853,7 @@
         <v>-1</v>
       </c>
       <c r="C401" t="n">
-        <v>0.833972343069014</v>
+        <v>0.8338506494819009</v>
       </c>
     </row>
     <row r="402">
@@ -4963,7 +4963,7 @@
         <v>-1</v>
       </c>
       <c r="C411" t="n">
-        <v>0.7827746379477929</v>
+        <v>0.7823537823739475</v>
       </c>
     </row>
     <row r="412">
@@ -5073,7 +5073,7 @@
         <v>-1</v>
       </c>
       <c r="C421" t="n">
-        <v>0.778704872674726</v>
+        <v>0.7785654612619696</v>
       </c>
     </row>
     <row r="422">
@@ -5114,10 +5114,10 @@
         <v>44453</v>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>0.7706500920483645</v>
       </c>
     </row>
     <row r="426">
@@ -5172,7 +5172,7 @@
         <v>-1</v>
       </c>
       <c r="C430" t="n">
-        <v>0.7668965506027794</v>
+        <v>0.7664620050497792</v>
       </c>
     </row>
     <row r="431">
@@ -5381,7 +5381,7 @@
         <v>-1</v>
       </c>
       <c r="C449" t="n">
-        <v>0.696407298414132</v>
+        <v>0.6960649417465633</v>
       </c>
     </row>
     <row r="450">
@@ -5411,10 +5411,10 @@
         <v>44497</v>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>0.6611100857983682</v>
       </c>
     </row>
     <row r="453">
@@ -5601,7 +5601,7 @@
         <v>-1</v>
       </c>
       <c r="C469" t="n">
-        <v>0.760369336776622</v>
+        <v>0.7599779061732873</v>
       </c>
     </row>
     <row r="470">
@@ -5631,10 +5631,10 @@
         <v>44525</v>
       </c>
       <c r="B472" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0.7206541449559305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -5796,10 +5796,10 @@
         <v>44546</v>
       </c>
       <c r="B487" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>0.7497062870816781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -5810,7 +5810,7 @@
         <v>-1</v>
       </c>
       <c r="C488" t="n">
-        <v>0.7497062870816781</v>
+        <v>0.7472010156526168</v>
       </c>
     </row>
     <row r="489">
@@ -5865,7 +5865,7 @@
         <v>-1</v>
       </c>
       <c r="C493" t="n">
-        <v>0.7830749399224883</v>
+        <v>0.782226823155447</v>
       </c>
     </row>
     <row r="494">
@@ -5931,7 +5931,7 @@
         <v>-1</v>
       </c>
       <c r="C499" t="n">
-        <v>0.8090276760517473</v>
+        <v>0.808506177981927</v>
       </c>
     </row>
     <row r="500">
@@ -6096,7 +6096,7 @@
         <v>-1</v>
       </c>
       <c r="C514" t="n">
-        <v>0.8009083838602422</v>
+        <v>0.800579991347411</v>
       </c>
     </row>
     <row r="515">
@@ -6195,7 +6195,7 @@
         <v>-1</v>
       </c>
       <c r="C523" t="n">
-        <v>0.7665912033606384</v>
+        <v>0.7665274554691792</v>
       </c>
     </row>
     <row r="524">
@@ -6214,10 +6214,10 @@
         <v>44606</v>
       </c>
       <c r="B525" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>0.7549980948097056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -6305,7 +6305,7 @@
         <v>-1</v>
       </c>
       <c r="C533" t="n">
-        <v>0.7591108488124334</v>
+        <v>0.7590061486181791</v>
       </c>
     </row>
     <row r="534">
@@ -6492,7 +6492,7 @@
         <v>-1</v>
       </c>
       <c r="C550" t="n">
-        <v>0.7529930238109636</v>
+        <v>0.7521445280443024</v>
       </c>
     </row>
     <row r="551">
@@ -6558,7 +6558,7 @@
         <v>-1</v>
       </c>
       <c r="C556" t="n">
-        <v>0.725483440305551</v>
+        <v>0.7257456763747269</v>
       </c>
     </row>
     <row r="557">
@@ -6734,7 +6734,7 @@
         <v>-1</v>
       </c>
       <c r="C572" t="n">
-        <v>0.7098880703392757</v>
+        <v>0.7100219124078964</v>
       </c>
     </row>
     <row r="573">
@@ -6800,7 +6800,7 @@
         <v>-1</v>
       </c>
       <c r="C578" t="n">
-        <v>0.6859083522109939</v>
+        <v>0.6861017110074012</v>
       </c>
     </row>
     <row r="579">
@@ -6844,7 +6844,7 @@
         <v>-1</v>
       </c>
       <c r="C582" t="n">
-        <v>0.6650756163391833</v>
+        <v>0.6651298566728179</v>
       </c>
     </row>
     <row r="583">
@@ -6863,10 +6863,10 @@
         <v>44692</v>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>0.6380519863498966</v>
       </c>
     </row>
     <row r="585">
@@ -6896,10 +6896,10 @@
         <v>44697</v>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>0.6233820672564078</v>
       </c>
     </row>
     <row r="588">
@@ -6921,7 +6921,7 @@
         <v>-1</v>
       </c>
       <c r="C589" t="n">
-        <v>0.6075079886009193</v>
+        <v>0.6070775023211987</v>
       </c>
     </row>
     <row r="590">
@@ -7020,7 +7020,7 @@
         <v>-1</v>
       </c>
       <c r="C598" t="n">
-        <v>0.5954114635969926</v>
+        <v>0.5954518221003505</v>
       </c>
     </row>
     <row r="599">
@@ -7086,7 +7086,7 @@
         <v>-1</v>
       </c>
       <c r="C604" t="n">
-        <v>0.5530567013940619</v>
+        <v>0.5530776250006494</v>
       </c>
     </row>
     <row r="605">
@@ -7405,7 +7405,7 @@
         <v>-1</v>
       </c>
       <c r="C633" t="n">
-        <v>0.5918522311311266</v>
+        <v>0.5922633137366246</v>
       </c>
     </row>
     <row r="634">
@@ -7416,7 +7416,7 @@
         <v>-1</v>
       </c>
       <c r="C634" t="n">
-        <v>0.5918522311311266</v>
+        <v>0.5922633137366246</v>
       </c>
     </row>
     <row r="635">
@@ -7526,7 +7526,7 @@
         <v>-1</v>
       </c>
       <c r="C644" t="n">
-        <v>0.5784048616158403</v>
+        <v>0.5781424445301275</v>
       </c>
     </row>
     <row r="645">
@@ -7801,7 +7801,7 @@
         <v>-1</v>
       </c>
       <c r="C669" t="n">
-        <v>0.6819887621062537</v>
+        <v>0.6815121618492441</v>
       </c>
     </row>
     <row r="670">
@@ -7834,7 +7834,7 @@
         <v>-1</v>
       </c>
       <c r="C672" t="n">
-        <v>0.6315766858943919</v>
+        <v>0.6312536757046265</v>
       </c>
     </row>
     <row r="673">
@@ -7845,7 +7845,7 @@
         <v>-1</v>
       </c>
       <c r="C673" t="n">
-        <v>0.6315766858943919</v>
+        <v>0.6312536757046265</v>
       </c>
     </row>
     <row r="674">
@@ -7878,7 +7878,7 @@
         <v>-1</v>
       </c>
       <c r="C676" t="n">
-        <v>0.5153936874594215</v>
+        <v>0.5159295214968344</v>
       </c>
     </row>
     <row r="677">
@@ -7900,7 +7900,7 @@
         <v>-1</v>
       </c>
       <c r="C678" t="n">
-        <v>0.4684460635824214</v>
+        <v>0.4691409862079065</v>
       </c>
     </row>
     <row r="679">
@@ -8263,7 +8263,7 @@
         <v>-1</v>
       </c>
       <c r="C711" t="n">
-        <v>0.6373049046293543</v>
+        <v>0.6370802718702152</v>
       </c>
     </row>
     <row r="712">
@@ -8505,7 +8505,7 @@
         <v>-1</v>
       </c>
       <c r="C733" t="n">
-        <v>0.5379553708739895</v>
+        <v>0.5378596935877146</v>
       </c>
     </row>
     <row r="734">
@@ -8703,7 +8703,7 @@
         <v>-1</v>
       </c>
       <c r="C751" t="n">
-        <v>0.6428518605035073</v>
+        <v>0.6426104161832873</v>
       </c>
     </row>
     <row r="752">
@@ -8956,7 +8956,7 @@
         <v>-1</v>
       </c>
       <c r="C774" t="n">
-        <v>0.8466428010796251</v>
+        <v>0.8467304596190117</v>
       </c>
     </row>
     <row r="775">
@@ -8978,7 +8978,7 @@
         <v>-1</v>
       </c>
       <c r="C776" t="n">
-        <v>0.8427539878491687</v>
+        <v>0.843789344177678</v>
       </c>
     </row>
     <row r="777">
@@ -9121,7 +9121,7 @@
         <v>-1</v>
       </c>
       <c r="C789" t="n">
-        <v>0.8970028339835038</v>
+        <v>0.8972271335574094</v>
       </c>
     </row>
     <row r="790">
@@ -9176,7 +9176,7 @@
         <v>-1</v>
       </c>
       <c r="C794" t="n">
-        <v>0.9031746315809952</v>
+        <v>0.9041477678025706</v>
       </c>
     </row>
     <row r="795">
@@ -9264,7 +9264,7 @@
         <v>-1</v>
       </c>
       <c r="C802" t="n">
-        <v>0.9094224195524578</v>
+        <v>0.9109137667668586</v>
       </c>
     </row>
     <row r="803">
